--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261266.4005348008</v>
+        <v>251932.5317657556</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4296792.284811524</v>
+        <v>4296792.284811523</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.4557269828723</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2370397652717</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="I11" t="n">
-        <v>27.10858212596077</v>
+        <v>27.10858212596079</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.42138243528123</v>
+        <v>99.42138243528125</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.368743627847</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>103.3240231202967</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="X11" t="n">
-        <v>257.4557269828723</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.4557269828723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.488816669738781</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.323999032971</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>81.25760283489613</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8986288277083</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.03339681766196</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.75543475034966</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.87806632431284</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.2509660155943</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>48.97872713262702</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.41138932833031</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.3556149981834</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="X14" t="n">
-        <v>226.7670043265138</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.4557269828722</v>
+        <v>257.4557269828721</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>117.1352642224129</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.86069278584543</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.4827039177406</v>
@@ -1751,10 +1751,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>108.5135086877315</v>
       </c>
     </row>
     <row r="16">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.5495725812739</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.0721565279464</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>248.2623077904726</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.10858212596079</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>99.42138243528123</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.3556149981834</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.368743627847</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>174.5327172309466</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="W17" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>199.6584222005529</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1099950118801</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.21475471039615</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.86069278584543</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>154.4827039177406</v>
@@ -1982,16 +1982,16 @@
         <v>195.323999032971</v>
       </c>
       <c r="V18" t="n">
-        <v>47.25568474657988</v>
+        <v>105.8559836610794</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>89.04415951918516</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>172.690230165078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="V19" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>257.4557269828722</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.5736120179341</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>257.455726982872</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>147.4241351049851</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>257.4557269828721</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>13.41138932833029</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>257.4557269828721</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.10858212596079</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>99.42138243528126</v>
       </c>
       <c r="T20" t="n">
         <v>213.3556149981834</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.368743627847</v>
       </c>
       <c r="V20" t="n">
-        <v>257.4557269828721</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>195.323999032971</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.1248820754898</v>
+        <v>83.92174958655212</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8986288277083</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>61.86837549880539</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>257.4557269828721</v>
+        <v>248.2623077904722</v>
       </c>
       <c r="V22" t="n">
-        <v>257.4557269828721</v>
+        <v>257.455726982872</v>
       </c>
       <c r="W22" t="n">
-        <v>257.4557269828721</v>
+        <v>257.455726982872</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>321.1496314371119</v>
       </c>
       <c r="C23" t="n">
-        <v>303.4763054437516</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>166.3170587691031</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>93.35052185511404</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
         <v>232.6944259398202</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>102.3343738524505</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>171.3176061726674</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.849029859921798</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>155.9760389867914</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2794,13 +2794,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>375.2950818971662</v>
       </c>
       <c r="E29" t="n">
-        <v>206.6292311903496</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>70.18890215539871</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>51.68965366371339</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9132448002744</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>75.49967043154977</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>87.53886068627229</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>195.2954114342289</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368961</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>116.1884165547034</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.356082982385</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>396.7842205528486</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>23.60212049172663</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3037726831681</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.6754635109993</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8332284553781</v>
+        <v>114.6388989709888</v>
       </c>
       <c r="I37" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>12.79692870097465</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>30.19176902319308</v>
+        <v>67.88758146526985</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.10843047735164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.116980693401171</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>269.5154863045109</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>259.1817316442361</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092304</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504997</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
@@ -3918,7 +3918,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>38.49512962614114</v>
       </c>
       <c r="V43" t="n">
-        <v>182.8906135466988</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>17.5553484870671</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>253.7005301604829</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098467</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>6.789900450637374</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>166.3415337283568</v>
@@ -4194,13 +4194,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>192.2964769951968</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="C11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="D11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="E11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="F11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="G11" t="n">
-        <v>149.228399462905</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="H11" t="n">
-        <v>47.97886434646894</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="I11" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J11" t="n">
-        <v>75.24433391563525</v>
+        <v>75.24433391563502</v>
       </c>
       <c r="K11" t="n">
-        <v>177.6964335646064</v>
+        <v>177.696433564606</v>
       </c>
       <c r="L11" t="n">
-        <v>319.7425361659796</v>
+        <v>319.7425361659791</v>
       </c>
       <c r="M11" t="n">
-        <v>490.6223168287155</v>
+        <v>490.6223168287148</v>
       </c>
       <c r="N11" t="n">
-        <v>666.1357033853122</v>
+        <v>666.1357033853114</v>
       </c>
       <c r="O11" t="n">
-        <v>826.4672365318011</v>
+        <v>826.4672365318002</v>
       </c>
       <c r="P11" t="n">
-        <v>949.3335853233342</v>
+        <v>949.3335853233335</v>
       </c>
       <c r="Q11" t="n">
-        <v>1022.091133999478</v>
+        <v>1022.091133999477</v>
       </c>
       <c r="R11" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S11" t="n">
-        <v>929.3972691079728</v>
+        <v>929.3972691079719</v>
       </c>
       <c r="T11" t="n">
-        <v>929.3972691079728</v>
+        <v>929.3972691079719</v>
       </c>
       <c r="U11" t="n">
-        <v>929.3972691079728</v>
+        <v>672.4591442313587</v>
       </c>
       <c r="V11" t="n">
-        <v>929.3972691079728</v>
+        <v>568.0914441098469</v>
       </c>
       <c r="W11" t="n">
-        <v>929.3972691079728</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="X11" t="n">
-        <v>669.3409792262835</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="Y11" t="n">
-        <v>409.2846893445943</v>
+        <v>308.0351542281579</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>246.179284304509</v>
+        <v>500.9413830154591</v>
       </c>
       <c r="C12" t="n">
-        <v>246.179284304509</v>
+        <v>366.9463117644048</v>
       </c>
       <c r="D12" t="n">
-        <v>129.2821265239014</v>
+        <v>250.0491539837972</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2821265239014</v>
+        <v>129.5563379761252</v>
       </c>
       <c r="F12" t="n">
-        <v>129.2821265239014</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="G12" t="n">
-        <v>23.11041439068916</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="H12" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I12" t="n">
-        <v>20.59645815862978</v>
+        <v>27.87742117901185</v>
       </c>
       <c r="J12" t="n">
-        <v>255.3705284646882</v>
+        <v>255.370528464688</v>
       </c>
       <c r="K12" t="n">
-        <v>329.6268858852866</v>
+        <v>329.6268858852863</v>
       </c>
       <c r="L12" t="n">
-        <v>448.2343514087946</v>
+        <v>448.2343514087942</v>
       </c>
       <c r="M12" t="n">
-        <v>594.4832009317645</v>
+        <v>594.483200931764</v>
       </c>
       <c r="N12" t="n">
-        <v>750.4383235154514</v>
+        <v>750.4383235154509</v>
       </c>
       <c r="O12" t="n">
-        <v>884.1077753177572</v>
+        <v>884.1077753177565</v>
       </c>
       <c r="P12" t="n">
-        <v>983.5594030676169</v>
+        <v>983.5594030676161</v>
       </c>
       <c r="Q12" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R12" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S12" t="n">
-        <v>1029.822907931489</v>
+        <v>937.0343293599273</v>
       </c>
       <c r="T12" t="n">
-        <v>1029.822907931489</v>
+        <v>937.0343293599273</v>
       </c>
       <c r="U12" t="n">
-        <v>832.5259392113164</v>
+        <v>937.0343293599273</v>
       </c>
       <c r="V12" t="n">
-        <v>618.8144122043502</v>
+        <v>723.322802352961</v>
       </c>
       <c r="W12" t="n">
-        <v>405.581243940679</v>
+        <v>641.2444156510458</v>
       </c>
       <c r="X12" t="n">
-        <v>405.581243940679</v>
+        <v>641.2444156510458</v>
       </c>
       <c r="Y12" t="n">
-        <v>246.179284304509</v>
+        <v>641.2444156510458</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>975.4006187150117</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="C13" t="n">
-        <v>804.3072462767282</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="D13" t="n">
-        <v>644.8126015996381</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="E13" t="n">
-        <v>483.9017864679576</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="F13" t="n">
-        <v>319.2706605785489</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="G13" t="n">
-        <v>152.7063890354092</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3090185125183</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I13" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J13" t="n">
-        <v>28.40086443140382</v>
+        <v>82.222336275751</v>
       </c>
       <c r="K13" t="n">
-        <v>261.0814859607935</v>
+        <v>314.9029578051407</v>
       </c>
       <c r="L13" t="n">
-        <v>306.9767924488796</v>
+        <v>569.7841275181841</v>
       </c>
       <c r="M13" t="n">
-        <v>561.8579621619232</v>
+        <v>824.6652972312274</v>
       </c>
       <c r="N13" t="n">
-        <v>613.5680432381487</v>
+        <v>876.3753783074529</v>
       </c>
       <c r="O13" t="n">
-        <v>653.1038716195596</v>
+        <v>915.9112066888638</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9850413326033</v>
+        <v>942.0208395851034</v>
       </c>
       <c r="Q13" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R13" t="n">
-        <v>975.4006187150117</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S13" t="n">
-        <v>975.4006187150117</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T13" t="n">
-        <v>975.4006187150117</v>
+        <v>793.2057705419991</v>
       </c>
       <c r="U13" t="n">
-        <v>975.4006187150117</v>
+        <v>533.14948066031</v>
       </c>
       <c r="V13" t="n">
-        <v>975.4006187150117</v>
+        <v>483.6760189101817</v>
       </c>
       <c r="W13" t="n">
-        <v>975.4006187150117</v>
+        <v>483.6760189101817</v>
       </c>
       <c r="X13" t="n">
-        <v>975.4006187150117</v>
+        <v>245.3321567698651</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.4006187150117</v>
+        <v>20.59645815862977</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.652748040319</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="C14" t="n">
-        <v>280.652748040319</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="D14" t="n">
-        <v>280.652748040319</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="E14" t="n">
-        <v>280.652748040319</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="F14" t="n">
-        <v>20.59645815862978</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="G14" t="n">
-        <v>20.59645815862978</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="H14" t="n">
-        <v>20.59645815862978</v>
+        <v>34.14331606603412</v>
       </c>
       <c r="I14" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J14" t="n">
-        <v>75.24433391563502</v>
+        <v>75.24433391563491</v>
       </c>
       <c r="K14" t="n">
-        <v>177.6964335646062</v>
+        <v>177.6964335646059</v>
       </c>
       <c r="L14" t="n">
-        <v>319.7425361659794</v>
+        <v>319.742536165979</v>
       </c>
       <c r="M14" t="n">
-        <v>490.6223168287154</v>
+        <v>490.6223168287149</v>
       </c>
       <c r="N14" t="n">
-        <v>666.1357033853121</v>
+        <v>666.1357033853114</v>
       </c>
       <c r="O14" t="n">
-        <v>826.4672365318009</v>
+        <v>826.4672365318006</v>
       </c>
       <c r="P14" t="n">
-        <v>949.3335853233342</v>
+        <v>949.3335853233336</v>
       </c>
       <c r="Q14" t="n">
-        <v>1022.091133999478</v>
+        <v>1022.091133999477</v>
       </c>
       <c r="R14" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S14" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T14" t="n">
-        <v>1029.822907931489</v>
+        <v>814.3121857111011</v>
       </c>
       <c r="U14" t="n">
-        <v>1029.822907931489</v>
+        <v>814.3121857111011</v>
       </c>
       <c r="V14" t="n">
-        <v>1029.822907931489</v>
+        <v>554.2558958294121</v>
       </c>
       <c r="W14" t="n">
-        <v>1029.822907931489</v>
+        <v>294.1996059477231</v>
       </c>
       <c r="X14" t="n">
-        <v>800.7653278036972</v>
+        <v>294.1996059477231</v>
       </c>
       <c r="Y14" t="n">
-        <v>540.7090379220081</v>
+        <v>34.14331606603412</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>354.0464988188454</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="C15" t="n">
-        <v>235.7280501093375</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="D15" t="n">
-        <v>235.7280501093375</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="E15" t="n">
-        <v>235.7280501093375</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="F15" t="n">
-        <v>126.768170291842</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="G15" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="H15" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I15" t="n">
-        <v>27.87742117901188</v>
+        <v>27.87742117901185</v>
       </c>
       <c r="J15" t="n">
-        <v>52.80409358687432</v>
+        <v>255.3705284646881</v>
       </c>
       <c r="K15" t="n">
-        <v>307.6852632999178</v>
+        <v>329.6268858852864</v>
       </c>
       <c r="L15" t="n">
-        <v>426.2927288234258</v>
+        <v>448.2343514087943</v>
       </c>
       <c r="M15" t="n">
-        <v>572.5415783463957</v>
+        <v>594.483200931764</v>
       </c>
       <c r="N15" t="n">
-        <v>728.4967009300826</v>
+        <v>750.4383235154509</v>
       </c>
       <c r="O15" t="n">
-        <v>862.1661527323884</v>
+        <v>884.1077753177565</v>
       </c>
       <c r="P15" t="n">
-        <v>961.6177804822481</v>
+        <v>983.5594030676161</v>
       </c>
       <c r="Q15" t="n">
-        <v>1007.88128534612</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R15" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S15" t="n">
-        <v>937.0343293599279</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T15" t="n">
-        <v>780.9911940894829</v>
+        <v>873.7797726610434</v>
       </c>
       <c r="U15" t="n">
-        <v>780.9911940894829</v>
+        <v>873.7797726610434</v>
       </c>
       <c r="V15" t="n">
-        <v>567.2796670825167</v>
+        <v>660.0682456540771</v>
       </c>
       <c r="W15" t="n">
-        <v>354.0464988188454</v>
+        <v>446.8350773904059</v>
       </c>
       <c r="X15" t="n">
-        <v>354.0464988188454</v>
+        <v>270.5090955292987</v>
       </c>
       <c r="Y15" t="n">
-        <v>354.0464988188454</v>
+        <v>160.8994907942164</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.59645815862978</v>
+        <v>617.3875029262086</v>
       </c>
       <c r="C16" t="n">
-        <v>20.59645815862978</v>
+        <v>484.5091467835077</v>
       </c>
       <c r="D16" t="n">
-        <v>20.59645815862978</v>
+        <v>325.0145021064177</v>
       </c>
       <c r="E16" t="n">
-        <v>20.59645815862978</v>
+        <v>164.1036869747372</v>
       </c>
       <c r="F16" t="n">
-        <v>20.59645815862978</v>
+        <v>164.1036869747372</v>
       </c>
       <c r="G16" t="n">
-        <v>20.59645815862978</v>
+        <v>164.1036869747372</v>
       </c>
       <c r="H16" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I16" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J16" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="K16" t="n">
-        <v>46.99688610230537</v>
+        <v>253.2770796880194</v>
       </c>
       <c r="L16" t="n">
-        <v>301.8780558153489</v>
+        <v>299.1723861761054</v>
       </c>
       <c r="M16" t="n">
-        <v>556.7592255283924</v>
+        <v>348.8821564917276</v>
       </c>
       <c r="N16" t="n">
-        <v>748.8321053222058</v>
+        <v>400.5922375679531</v>
       </c>
       <c r="O16" t="n">
-        <v>1003.713275035249</v>
+        <v>655.4734072809964</v>
       </c>
       <c r="P16" t="n">
-        <v>1029.822907931489</v>
+        <v>910.3545769940398</v>
       </c>
       <c r="Q16" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R16" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S16" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T16" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U16" t="n">
-        <v>779.0529000623247</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="V16" t="n">
-        <v>518.9966101806356</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="W16" t="n">
-        <v>258.9403202989464</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="X16" t="n">
-        <v>20.59645815862978</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.59645815862978</v>
+        <v>805.087209320253</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.59645815862978</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="C17" t="n">
-        <v>20.59645815862978</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="D17" t="n">
-        <v>20.59645815862978</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="E17" t="n">
-        <v>20.59645815862978</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="F17" t="n">
-        <v>20.59645815862978</v>
+        <v>308.0351542281579</v>
       </c>
       <c r="G17" t="n">
-        <v>20.59645815862978</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="H17" t="n">
-        <v>20.59645815862978</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="I17" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J17" t="n">
-        <v>75.24433391563514</v>
+        <v>75.24433391563491</v>
       </c>
       <c r="K17" t="n">
-        <v>177.6964335646061</v>
+        <v>177.6964335646059</v>
       </c>
       <c r="L17" t="n">
-        <v>319.7425361659793</v>
+        <v>319.742536165979</v>
       </c>
       <c r="M17" t="n">
-        <v>490.6223168287152</v>
+        <v>490.6223168287149</v>
       </c>
       <c r="N17" t="n">
-        <v>666.1357033853119</v>
+        <v>666.1357033853114</v>
       </c>
       <c r="O17" t="n">
-        <v>826.4672365318007</v>
+        <v>826.4672365318006</v>
       </c>
       <c r="P17" t="n">
-        <v>949.333585323334</v>
+        <v>949.3335853233336</v>
       </c>
       <c r="Q17" t="n">
-        <v>1022.091133999478</v>
+        <v>1022.091133999477</v>
       </c>
       <c r="R17" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S17" t="n">
-        <v>929.3972691079725</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T17" t="n">
-        <v>713.8865468875853</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U17" t="n">
-        <v>456.9484220109721</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="V17" t="n">
-        <v>280.652748040319</v>
+        <v>769.7666180497993</v>
       </c>
       <c r="W17" t="n">
-        <v>20.59645815862978</v>
+        <v>769.7666180497993</v>
       </c>
       <c r="X17" t="n">
-        <v>20.59645815862978</v>
+        <v>568.0914441098469</v>
       </c>
       <c r="Y17" t="n">
-        <v>20.59645815862978</v>
+        <v>568.0914441098469</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>535.9612104737748</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="C18" t="n">
-        <v>535.9612104737748</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="D18" t="n">
-        <v>419.0640526931672</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="E18" t="n">
-        <v>298.5712366854952</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="F18" t="n">
-        <v>189.6113568679998</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="G18" t="n">
-        <v>83.43964473478752</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="H18" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I18" t="n">
-        <v>27.87742117901187</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80409358687429</v>
+        <v>255.3705284646881</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0604510074726</v>
+        <v>329.6268858852864</v>
       </c>
       <c r="L18" t="n">
-        <v>381.9416207205162</v>
+        <v>448.2343514087943</v>
       </c>
       <c r="M18" t="n">
-        <v>594.4832009317643</v>
+        <v>594.483200931764</v>
       </c>
       <c r="N18" t="n">
-        <v>750.4383235154512</v>
+        <v>750.4383235154509</v>
       </c>
       <c r="O18" t="n">
-        <v>884.1077753177569</v>
+        <v>884.1077753177565</v>
       </c>
       <c r="P18" t="n">
-        <v>983.5594030676167</v>
+        <v>983.5594030676161</v>
       </c>
       <c r="Q18" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R18" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S18" t="n">
-        <v>937.0343293599279</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T18" t="n">
-        <v>780.9911940894829</v>
+        <v>873.7797726610434</v>
       </c>
       <c r="U18" t="n">
-        <v>583.6942253693101</v>
+        <v>676.4828039408706</v>
       </c>
       <c r="V18" t="n">
-        <v>535.9612104737748</v>
+        <v>569.5575679195782</v>
       </c>
       <c r="W18" t="n">
-        <v>535.9612104737748</v>
+        <v>356.324399655907</v>
       </c>
       <c r="X18" t="n">
-        <v>535.9612104737748</v>
+        <v>179.9984177947997</v>
       </c>
       <c r="Y18" t="n">
-        <v>535.9612104737748</v>
+        <v>20.59645815862977</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.5400536325542</v>
+        <v>351.1844752740033</v>
       </c>
       <c r="C19" t="n">
-        <v>20.59645815862978</v>
+        <v>180.0911028357197</v>
       </c>
       <c r="D19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="E19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="F19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="G19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="H19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="I19" t="n">
-        <v>20.59645815862978</v>
+        <v>20.59645815862977</v>
       </c>
       <c r="J19" t="n">
-        <v>20.59645815862978</v>
+        <v>82.22233627575099</v>
       </c>
       <c r="K19" t="n">
-        <v>46.99688610230535</v>
+        <v>314.9029578051407</v>
       </c>
       <c r="L19" t="n">
-        <v>301.8780558153489</v>
+        <v>569.7841275181841</v>
       </c>
       <c r="M19" t="n">
-        <v>556.7592255283924</v>
+        <v>709.2962769407944</v>
       </c>
       <c r="N19" t="n">
-        <v>748.8321053222058</v>
+        <v>964.1774466538378</v>
       </c>
       <c r="O19" t="n">
         <v>1003.713275035249</v>
       </c>
       <c r="P19" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="Q19" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R19" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S19" t="n">
-        <v>855.3883320071678</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T19" t="n">
-        <v>855.3883320071678</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U19" t="n">
-        <v>855.3883320071678</v>
+        <v>769.7666180497993</v>
       </c>
       <c r="V19" t="n">
-        <v>595.3320421254787</v>
+        <v>769.7666180497993</v>
       </c>
       <c r="W19" t="n">
-        <v>335.2757522437895</v>
+        <v>769.7666180497993</v>
       </c>
       <c r="X19" t="n">
-        <v>335.2757522437895</v>
+        <v>538.8841816680476</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.5400536325542</v>
+        <v>538.8841816680476</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554.2558958294122</v>
+        <v>456.9484220109712</v>
       </c>
       <c r="C20" t="n">
-        <v>554.2558958294122</v>
+        <v>196.8921321292822</v>
       </c>
       <c r="D20" t="n">
-        <v>554.2558958294122</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="E20" t="n">
-        <v>554.2558958294122</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="F20" t="n">
-        <v>294.1996059477232</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="G20" t="n">
-        <v>280.6527480403188</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="H20" t="n">
-        <v>20.59645815862977</v>
+        <v>47.97886434646895</v>
       </c>
       <c r="I20" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="J20" t="n">
-        <v>75.24433391563515</v>
+        <v>75.24433391563502</v>
       </c>
       <c r="K20" t="n">
         <v>177.6964335646062</v>
@@ -5764,40 +5764,40 @@
         <v>490.622316828715</v>
       </c>
       <c r="N20" t="n">
-        <v>666.1357033853117</v>
+        <v>666.1357033853116</v>
       </c>
       <c r="O20" t="n">
-        <v>826.4672365318006</v>
+        <v>826.4672365318002</v>
       </c>
       <c r="P20" t="n">
-        <v>949.3335853233339</v>
+        <v>949.3335853233333</v>
       </c>
       <c r="Q20" t="n">
         <v>1022.091133999477</v>
       </c>
       <c r="R20" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S20" t="n">
-        <v>1029.822907931489</v>
+        <v>929.3972691079716</v>
       </c>
       <c r="T20" t="n">
-        <v>814.3121857111013</v>
+        <v>713.8865468875844</v>
       </c>
       <c r="U20" t="n">
-        <v>814.3121857111013</v>
+        <v>456.9484220109712</v>
       </c>
       <c r="V20" t="n">
-        <v>554.2558958294122</v>
+        <v>456.9484220109712</v>
       </c>
       <c r="W20" t="n">
-        <v>554.2558958294122</v>
+        <v>456.9484220109712</v>
       </c>
       <c r="X20" t="n">
-        <v>554.2558958294122</v>
+        <v>456.9484220109712</v>
       </c>
       <c r="Y20" t="n">
-        <v>554.2558958294122</v>
+        <v>456.9484220109712</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.4936159392373</v>
+        <v>275.0843454173561</v>
       </c>
       <c r="C21" t="n">
-        <v>137.4936159392373</v>
+        <v>141.0892741663018</v>
       </c>
       <c r="D21" t="n">
-        <v>20.59645815862977</v>
+        <v>141.0892741663018</v>
       </c>
       <c r="E21" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="F21" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="G21" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="H21" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="I21" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="J21" t="n">
-        <v>255.3705284646878</v>
+        <v>45.52313056649214</v>
       </c>
       <c r="K21" t="n">
-        <v>329.6268858852861</v>
+        <v>300.4043002795354</v>
       </c>
       <c r="L21" t="n">
-        <v>448.2343514087941</v>
+        <v>419.0117658030433</v>
       </c>
       <c r="M21" t="n">
-        <v>594.4832009317639</v>
+        <v>565.2606153260131</v>
       </c>
       <c r="N21" t="n">
-        <v>750.4383235154509</v>
+        <v>721.2157379096999</v>
       </c>
       <c r="O21" t="n">
-        <v>884.1077753177565</v>
+        <v>854.8851897120055</v>
       </c>
       <c r="P21" t="n">
-        <v>983.5594030676162</v>
+        <v>954.3368174618652</v>
       </c>
       <c r="Q21" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R21" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S21" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T21" t="n">
-        <v>873.7797726610436</v>
+        <v>873.7797726610431</v>
       </c>
       <c r="U21" t="n">
-        <v>676.4828039408708</v>
+        <v>676.4828039408703</v>
       </c>
       <c r="V21" t="n">
-        <v>462.7712769339046</v>
+        <v>676.4828039408703</v>
       </c>
       <c r="W21" t="n">
-        <v>277.796648574824</v>
+        <v>591.71335991405</v>
       </c>
       <c r="X21" t="n">
-        <v>277.796648574824</v>
+        <v>415.3873780529427</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.796648574824</v>
+        <v>415.3873780529427</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="C22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="D22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="E22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="F22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="G22" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="H22" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="I22" t="n">
-        <v>20.59645815862977</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="J22" t="n">
-        <v>20.59645815862977</v>
+        <v>82.22233627575099</v>
       </c>
       <c r="K22" t="n">
-        <v>46.99688610230534</v>
+        <v>108.6227642194265</v>
       </c>
       <c r="L22" t="n">
-        <v>239.0697658961187</v>
+        <v>363.5039339324699</v>
       </c>
       <c r="M22" t="n">
-        <v>493.9509356091621</v>
+        <v>618.3851036455131</v>
       </c>
       <c r="N22" t="n">
-        <v>748.8321053222055</v>
+        <v>873.2662733585564</v>
       </c>
       <c r="O22" t="n">
-        <v>1003.713275035249</v>
+        <v>912.8021017399673</v>
       </c>
       <c r="P22" t="n">
-        <v>1029.822907931489</v>
+        <v>938.9117346362069</v>
       </c>
       <c r="Q22" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="R22" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="S22" t="n">
-        <v>1029.822907931489</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="T22" t="n">
-        <v>967.3295993468366</v>
+        <v>1029.822907931488</v>
       </c>
       <c r="U22" t="n">
-        <v>707.2733094651476</v>
+        <v>779.0529000623243</v>
       </c>
       <c r="V22" t="n">
-        <v>447.2170195834585</v>
+        <v>518.9966101806353</v>
       </c>
       <c r="W22" t="n">
-        <v>187.1607297017694</v>
+        <v>258.9403202989464</v>
       </c>
       <c r="X22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.1607297017694</v>
+        <v>20.59645815862976</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.0281596165249</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="C23" t="n">
-        <v>40.48643694606873</v>
+        <v>1138.171042583205</v>
       </c>
       <c r="D23" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E23" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K23" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576256</v>
@@ -6010,31 +6010,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R23" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U23" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="V23" t="n">
-        <v>1942.589711028803</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W23" t="n">
-        <v>1558.829410163972</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="X23" t="n">
-        <v>1158.186012332924</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="Y23" t="n">
-        <v>757.2493392810144</v>
+        <v>1462.564609691399</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J24" t="n">
-        <v>371.8168719145381</v>
+        <v>108.5806640902073</v>
       </c>
       <c r="K24" t="n">
-        <v>515.5388644458295</v>
+        <v>264.5117467880015</v>
       </c>
       <c r="L24" t="n">
-        <v>727.5514489674867</v>
+        <v>476.5243313096588</v>
       </c>
       <c r="M24" t="n">
-        <v>982.7996667264548</v>
+        <v>731.7725490686269</v>
       </c>
       <c r="N24" t="n">
-        <v>1250.639046485604</v>
+        <v>999.6119288277761</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132247</v>
+        <v>1235.633617581756</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.04491856843</v>
+        <v>1417.231939017938</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.6246178008549</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="C25" t="n">
-        <v>284.6275887411548</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="D25" t="n">
-        <v>125.1329440640648</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="E25" t="n">
-        <v>125.1329440640648</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="F25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J25" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168145</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M25" t="n">
-        <v>1012.210811388059</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.145037964105</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062866</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T25" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U25" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V25" t="n">
-        <v>1194.773843043532</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W25" t="n">
-        <v>915.7041785524068</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X25" t="n">
-        <v>677.3603164120902</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6246178008549</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1383.689048778839</v>
+        <v>500.3768416212482</v>
       </c>
       <c r="C26" t="n">
-        <v>1280.320994382424</v>
+        <v>500.3768416212482</v>
       </c>
       <c r="D26" t="n">
-        <v>875.8570644754844</v>
+        <v>500.3768416212482</v>
       </c>
       <c r="E26" t="n">
-        <v>461.5168489923811</v>
+        <v>500.3768416212482</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606871</v>
+        <v>500.3768416212482</v>
       </c>
       <c r="G26" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606871</v>
@@ -6226,13 +6226,13 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
         <v>953.2429319501304</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U26" t="n">
-        <v>1767.44934964367</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.44934964367</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W26" t="n">
-        <v>1383.689048778839</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="X26" t="n">
-        <v>1383.689048778839</v>
+        <v>901.3135146731581</v>
       </c>
       <c r="Y26" t="n">
-        <v>1383.689048778839</v>
+        <v>500.3768416212482</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J27" t="n">
-        <v>274.861577881588</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K27" t="n">
-        <v>418.5835704128795</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L27" t="n">
-        <v>630.5961549345368</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M27" t="n">
-        <v>1131.615812142137</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N27" t="n">
-        <v>1399.455191901286</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P27" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q27" t="n">
         <v>1918.251596225539</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>457.1371316340288</v>
+        <v>379.6438114794543</v>
       </c>
       <c r="C28" t="n">
-        <v>286.0437591957453</v>
+        <v>208.5504390411708</v>
       </c>
       <c r="D28" t="n">
-        <v>286.0437591957453</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="E28" t="n">
-        <v>125.1329440640648</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F28" t="n">
-        <v>125.1329440640648</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
@@ -6393,10 +6393,10 @@
         <v>815.6863250168145</v>
       </c>
       <c r="M28" t="n">
-        <v>1266.896543402695</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.145037964104</v>
+        <v>1360.864420464456</v>
       </c>
       <c r="O28" t="n">
         <v>1541.657620062865</v>
@@ -6414,22 +6414,22 @@
         <v>1818.423362863341</v>
       </c>
       <c r="T28" t="n">
-        <v>1818.423362863341</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U28" t="n">
-        <v>1660.871808331229</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="V28" t="n">
-        <v>1386.986063270751</v>
+        <v>1309.492743116176</v>
       </c>
       <c r="W28" t="n">
-        <v>1107.916398779625</v>
+        <v>1030.42307862505</v>
       </c>
       <c r="X28" t="n">
-        <v>869.5725366393085</v>
+        <v>792.0792164847339</v>
       </c>
       <c r="Y28" t="n">
-        <v>644.8368380280732</v>
+        <v>567.3435178734986</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>536.0451497199172</v>
+        <v>829.6969689430675</v>
       </c>
       <c r="C29" t="n">
-        <v>536.0451497199172</v>
+        <v>419.5723782563376</v>
       </c>
       <c r="D29" t="n">
-        <v>536.0451497199172</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E29" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F29" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G29" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606871</v>
@@ -6490,25 +6490,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U29" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V29" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W29" t="n">
-        <v>1346.909727215454</v>
+        <v>1640.561546438604</v>
       </c>
       <c r="X29" t="n">
-        <v>946.2663293844066</v>
+        <v>1239.918148607557</v>
       </c>
       <c r="Y29" t="n">
-        <v>946.2663293844066</v>
+        <v>1239.918148607557</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579544</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
@@ -6542,25 +6542,25 @@
         <v>43.01083102505505</v>
       </c>
       <c r="J30" t="n">
-        <v>108.5806640902073</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K30" t="n">
-        <v>252.3026566214988</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L30" t="n">
-        <v>464.3152411431561</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M30" t="n">
-        <v>719.5634589021241</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N30" t="n">
-        <v>1220.583116109724</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O30" t="n">
-        <v>1456.604804863704</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P30" t="n">
-        <v>1638.203126299887</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q30" t="n">
         <v>2006.22131270252</v>
@@ -6572,7 +6572,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
         <v>1588.14395921251</v>
@@ -6584,10 +6584,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1003.048274546781</v>
+        <v>608.1686301923795</v>
       </c>
       <c r="C31" t="n">
-        <v>831.9549021084979</v>
+        <v>437.075257754096</v>
       </c>
       <c r="D31" t="n">
-        <v>672.4602574314079</v>
+        <v>277.580613077006</v>
       </c>
       <c r="E31" t="n">
-        <v>511.5494422997273</v>
+        <v>277.580613077006</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9183164103185</v>
+        <v>277.580613077006</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7220212444305</v>
+        <v>111.3843179111179</v>
       </c>
       <c r="H31" t="n">
         <v>40.48643694606871</v>
@@ -6630,10 +6630,10 @@
         <v>815.6863250168145</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.896543402695</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.145037964104</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O31" t="n">
         <v>1541.657620062865</v>
@@ -6648,25 +6648,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T31" t="n">
-        <v>1972.110075925948</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="U31" t="n">
-        <v>1689.369424612539</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V31" t="n">
-        <v>1415.483679552061</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.483679552061</v>
+        <v>1020.604035197659</v>
       </c>
       <c r="X31" t="n">
-        <v>1415.483679552061</v>
+        <v>1020.604035197659</v>
       </c>
       <c r="Y31" t="n">
-        <v>1190.747980940826</v>
+        <v>795.8683365864239</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1141.917275171819</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="C32" t="n">
-        <v>731.7926844850894</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D32" t="n">
-        <v>327.3287545781499</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E32" t="n">
-        <v>327.3287545781499</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.6457459074655</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J32" t="n">
         <v>167.5334271492898</v>
@@ -6709,7 +6709,7 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576256</v>
@@ -6724,28 +6724,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U32" t="n">
-        <v>1935.89875570114</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V32" t="n">
-        <v>1935.89875570114</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W32" t="n">
-        <v>1552.138454836309</v>
+        <v>952.1193578406862</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.138454836309</v>
+        <v>952.1193578406862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1552.138454836309</v>
+        <v>952.1193578406862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>62.57863487475244</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J33" t="n">
-        <v>371.816871914538</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K33" t="n">
-        <v>515.5388644458295</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L33" t="n">
-        <v>727.5514489674867</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M33" t="n">
-        <v>982.7996667264548</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N33" t="n">
-        <v>1483.819323934055</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132246</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.044918568429</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q33" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
         <v>1939.686028373151</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>205.1175628354774</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="C34" t="n">
-        <v>205.1175628354774</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="D34" t="n">
-        <v>205.1175628354774</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="E34" t="n">
-        <v>205.1175628354774</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="F34" t="n">
-        <v>40.48643694606871</v>
+        <v>157.8484738700115</v>
       </c>
       <c r="G34" t="n">
         <v>40.48643694606871</v>
@@ -6861,49 +6861,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168145</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M34" t="n">
-        <v>921.9301938884096</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N34" t="n">
-        <v>1360.864420464456</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062865</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T34" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U34" t="n">
-        <v>1300.637836863245</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.752091802767</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W34" t="n">
-        <v>747.6824273116415</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X34" t="n">
-        <v>509.3385651713249</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.8172692295218</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1555.529666695153</v>
+        <v>891.7357328397161</v>
       </c>
       <c r="C35" t="n">
-        <v>1555.529666695153</v>
+        <v>891.7357328397161</v>
       </c>
       <c r="D35" t="n">
-        <v>1154.737524722578</v>
+        <v>891.7357328397161</v>
       </c>
       <c r="E35" t="n">
-        <v>1154.737524722578</v>
+        <v>891.7357328397161</v>
       </c>
       <c r="F35" t="n">
-        <v>733.707112676266</v>
+        <v>470.7053207934036</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3287545781499</v>
+        <v>64.32696269528753</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746554</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N35" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O35" t="n">
         <v>1568.017893256777</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>1812.402164354919</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U35" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V35" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W35" t="n">
-        <v>1555.529666695153</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="X35" t="n">
-        <v>1555.529666695153</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="Y35" t="n">
-        <v>1555.529666695153</v>
+        <v>1301.956912504206</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>204.8233649521794</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
@@ -7016,25 +7016,25 @@
         <v>43.01083102505505</v>
       </c>
       <c r="J36" t="n">
-        <v>251.3050691308925</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K36" t="n">
-        <v>752.3247263384928</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L36" t="n">
-        <v>964.3373108601501</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.585528619118</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N36" t="n">
-        <v>1487.424908378267</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O36" t="n">
-        <v>1723.446597132247</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.694781664777</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="C37" t="n">
-        <v>916.6014092264938</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="D37" t="n">
-        <v>757.1067645494038</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="E37" t="n">
-        <v>596.1959494177233</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="F37" t="n">
-        <v>431.5648235283147</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="G37" t="n">
-        <v>265.3685283624266</v>
+        <v>156.2833045935321</v>
       </c>
       <c r="H37" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I37" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K37" t="n">
-        <v>273.7807741333786</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L37" t="n">
-        <v>687.2745532080146</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M37" t="n">
-        <v>1138.484771593895</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N37" t="n">
-        <v>1577.418998169941</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.931580268702</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P37" t="n">
         <v>1998.558115949587</v>
@@ -7119,28 +7119,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.400239417419</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1751.400239417419</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>1738.474048810373</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>1500.130186670057</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.394488058822</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>859.2905823361115</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="C38" t="n">
-        <v>859.2905823361115</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D38" t="n">
-        <v>454.826652429172</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E38" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606871</v>
@@ -7171,10 +7171,10 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
         <v>372.2593058752964</v>
@@ -7183,10 +7183,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.825110916372</v>
+        <v>1662.096713468902</v>
       </c>
       <c r="V38" t="n">
-        <v>1643.987556252853</v>
+        <v>1662.096713468902</v>
       </c>
       <c r="W38" t="n">
-        <v>1260.227255388021</v>
+        <v>1662.096713468902</v>
       </c>
       <c r="X38" t="n">
-        <v>1260.227255388021</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="Y38" t="n">
-        <v>859.2905823361115</v>
+        <v>1261.453315637854</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>99.09057352692729</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606839</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475211</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>371.8168719145377</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>515.5388644458292</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>727.5514489674865</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>1131.615812142137</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1399.455191901286</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
         <v>1635.476880655266</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.694781664777</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="C40" t="n">
         <v>916.6014092264938</v>
@@ -7332,16 +7332,16 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>337.1911823108421</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>750.6849613854781</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M40" t="n">
-        <v>856.9288302570732</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N40" t="n">
         <v>1136.070278545364</v>
@@ -7356,28 +7356,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>2009.060806417222</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>2009.060806417222</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T40" t="n">
-        <v>1774.015931730535</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="U40" t="n">
-        <v>1774.015931730535</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.130186670057</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.130186670057</v>
+        <v>1567.38067637209</v>
       </c>
       <c r="X40" t="n">
-        <v>1500.130186670057</v>
+        <v>1329.036814231773</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.394488058822</v>
+        <v>1104.301115620538</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>723.316577925953</v>
+        <v>1269.415173022841</v>
       </c>
       <c r="C41" t="n">
-        <v>723.316577925953</v>
+        <v>859.2905823361115</v>
       </c>
       <c r="D41" t="n">
-        <v>461.5168489923811</v>
+        <v>454.826652429172</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923811</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7432,7 +7432,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
@@ -7441,22 +7441,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.670028080285</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.959975757</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W41" t="n">
-        <v>1123.959975757</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X41" t="n">
-        <v>723.316577925953</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="Y41" t="n">
-        <v>723.316577925953</v>
+        <v>1541.653037976893</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J42" t="n">
-        <v>108.5806640902073</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K42" t="n">
-        <v>375.3479371755688</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L42" t="n">
-        <v>876.3675943831691</v>
+        <v>483.8830449928535</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.615812142137</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N42" t="n">
-        <v>1399.455191901286</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O42" t="n">
-        <v>1635.476880655266</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P42" t="n">
-        <v>1817.075202091449</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q42" t="n">
         <v>1918.251596225539</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>928.2001369876873</v>
+        <v>838.4171486573725</v>
       </c>
       <c r="C43" t="n">
-        <v>757.1067645494038</v>
+        <v>667.323776219089</v>
       </c>
       <c r="D43" t="n">
-        <v>757.1067645494038</v>
+        <v>507.8291315419991</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>501.7072137817915</v>
+        <v>372.1997937892743</v>
       </c>
       <c r="M43" t="n">
-        <v>697.1360519693176</v>
+        <v>823.4100121751549</v>
       </c>
       <c r="N43" t="n">
-        <v>1136.070278545364</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O43" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176654</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1817.416126743337</v>
       </c>
       <c r="V43" t="n">
-        <v>1115.899843381732</v>
+        <v>1543.530381682859</v>
       </c>
       <c r="W43" t="n">
-        <v>1115.899843381732</v>
+        <v>1264.460717191733</v>
       </c>
       <c r="X43" t="n">
-        <v>1115.899843381732</v>
+        <v>1026.116855051417</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.899843381732</v>
+        <v>1026.116855051417</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1276.105369586051</v>
+        <v>462.6830420924699</v>
       </c>
       <c r="C44" t="n">
-        <v>865.9807788993207</v>
+        <v>462.6830420924699</v>
       </c>
       <c r="D44" t="n">
-        <v>461.5168489923813</v>
+        <v>58.21911218553043</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923813</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606878</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606878</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606878</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746878</v>
+        <v>44.64574590746605</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492931</v>
+        <v>167.5334271492904</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752996</v>
+        <v>372.2593058752969</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879108</v>
+        <v>641.1850750879081</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501338</v>
+        <v>953.242931950131</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.21880357626</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.01789325678</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397421</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463275</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
-        <v>2024.321847303439</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028806</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>1942.589711028806</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1942.589711028806</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1942.589711028806</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W44" t="n">
-        <v>1686.32654925054</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="X44" t="n">
-        <v>1686.32654925054</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="Y44" t="n">
-        <v>1686.32654925054</v>
+        <v>872.9042217569594</v>
       </c>
     </row>
     <row r="45">
@@ -7718,40 +7718,40 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692767</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606878</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475251</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J45" t="n">
-        <v>371.8168719145381</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K45" t="n">
-        <v>515.5388644458295</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L45" t="n">
-        <v>964.3373108601533</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.585528619121</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N45" t="n">
-        <v>1487.42490837827</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O45" t="n">
-        <v>1723.44659713225</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P45" t="n">
-        <v>1905.044918568433</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.221312702523</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R45" t="n">
-        <v>2024.321847303439</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S45" t="n">
         <v>1939.686028373151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.2243102318064</v>
+        <v>677.5063335256921</v>
       </c>
       <c r="C46" t="n">
-        <v>776.3658249281323</v>
+        <v>506.4129610874085</v>
       </c>
       <c r="D46" t="n">
-        <v>616.8711802510422</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="E46" t="n">
-        <v>455.9603651193618</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="F46" t="n">
-        <v>291.329239229953</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G46" t="n">
-        <v>125.1329440640649</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640649</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606878</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909255</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>177.3984040230895</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>590.8921830977255</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>697.1360519693205</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N46" t="n">
-        <v>1136.070278545367</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062868</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.284155743753</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
-        <v>2024.321847303439</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104109</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863344</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176657</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863249</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>1300.637836863249</v>
+        <v>1144.275704410862</v>
       </c>
       <c r="W46" t="n">
-        <v>1021.568172372123</v>
+        <v>865.2060399197364</v>
       </c>
       <c r="X46" t="n">
-        <v>783.2243102318064</v>
+        <v>865.2060399197364</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.2243102318064</v>
+        <v>865.2060399197364</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.41095033264171</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>211.9670685840364</v>
+        <v>204.6125604826402</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.695701569160313</v>
+        <v>8.695701569160335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.29281998685774</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>211.096831540361</v>
       </c>
       <c r="M13" t="n">
-        <v>207.243837775173</v>
+        <v>207.2438377751728</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>231.082360421014</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>93.16986055892528</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>204.6125604826402</v>
       </c>
       <c r="K15" t="n">
-        <v>182.4493053459042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>30.85895670589625</v>
+        <v>8.695701569160342</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.409581327490031</v>
+        <v>3.409581327490059</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>211.0968315403611</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>207.243837775173</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>141.7806047652403</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5205467996289</v>
+        <v>217.5205467996288</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>231.0823604210138</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.480902633283961</v>
+        <v>125.1559843882825</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>12.41095033264173</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>211.9670685840363</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>137.6502062520561</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>66.96235423058405</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.69570156916032</v>
+        <v>8.695701569160342</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.409581327490038</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>211.0968315403611</v>
+        <v>211.096831540361</v>
       </c>
       <c r="M19" t="n">
-        <v>207.243837775173</v>
+        <v>90.70947384544257</v>
       </c>
       <c r="N19" t="n">
-        <v>141.7806047652403</v>
+        <v>205.2233218553716</v>
       </c>
       <c r="O19" t="n">
-        <v>217.5205467996289</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.480902633283968</v>
+        <v>4.480902633283996</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>12.41095033264173</v>
       </c>
       <c r="J21" t="n">
-        <v>211.967068584036</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>182.4493053459041</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>29.51776323813203</v>
       </c>
       <c r="R21" t="n">
-        <v>8.695701569160327</v>
+        <v>8.695701569160342</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.409581327490045</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>147.6541144502296</v>
+        <v>211.0968315403609</v>
       </c>
       <c r="M22" t="n">
-        <v>207.2438377751729</v>
+        <v>207.2438377751728</v>
       </c>
       <c r="N22" t="n">
         <v>205.2233218553716</v>
       </c>
       <c r="O22" t="n">
-        <v>217.5205467996288</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.480902633283975</v>
+        <v>96.31037060831548</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.33241430959868</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>239.177638275418</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463827</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19254292893839</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>167.9605189811926</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10041,13 +10041,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>78.12986811408966</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>91.19254292893797</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>269.5371639076193</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>78.12986811408966</v>
+        <v>108.3233934631249</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5356337863142</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3.642004489102817</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463827</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>91.19254292893751</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.1660656976618</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K36" t="n">
-        <v>360.9067319962716</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>78.65497149183257</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10758,10 +10758,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>150.3193388037199</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
@@ -10989,10 +10989,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>108.3233934631249</v>
       </c>
       <c r="N40" t="n">
-        <v>173.9813365250808</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>124.2881621758283</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>291.9263360464071</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>396.4490397881979</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,13 +11220,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>77.54825615474439</v>
       </c>
       <c r="M43" t="n">
-        <v>90.08582759184952</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11238,7 +11238,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.0847972377574</v>
       </c>
       <c r="L45" t="n">
-        <v>239.1776382754206</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>46.95698514945599</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631251</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.6632408849723</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23275,7 +23275,7 @@
         <v>403.1267113256218</v>
       </c>
       <c r="H11" t="n">
-        <v>192.0541507804047</v>
+        <v>34.83546356280436</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>213.3556149981834</v>
       </c>
       <c r="U11" t="n">
-        <v>254.368743627847</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>243.0151559965875</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>122.466970873311</v>
       </c>
       <c r="X11" t="n">
-        <v>139.1812368698647</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>139.4715793385185</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H12" t="n">
-        <v>59.72593804065737</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.86069278584543</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>154.4827039177406</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.323999032971</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>129.8432337461384</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23418,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8986288277083</v>
       </c>
       <c r="H13" t="n">
-        <v>106.0387597102844</v>
+        <v>142.0721565279464</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.75543475034968</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.87806632431285</v>
       </c>
       <c r="S13" t="n">
         <v>172.690230165078</v>
       </c>
       <c r="T13" t="n">
-        <v>234.2509660155943</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.933115524646</v>
+        <v>22.47738854177391</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>222.1681604772462</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.6632408849723</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>159.364380942977</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>403.1267113256218</v>
@@ -23515,7 +23515,7 @@
         <v>292.2911905456764</v>
       </c>
       <c r="I14" t="n">
-        <v>27.10858212596077</v>
+        <v>13.69719279763049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>99.42138243528123</v>
+        <v>99.42138243528126</v>
       </c>
       <c r="T14" t="n">
-        <v>213.3556149981834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.368743627847</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>88.88345213401203</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>122.466970873311</v>
       </c>
       <c r="X14" t="n">
-        <v>169.8699595262231</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>139.4715793385186</v>
+        <v>139.4715793385187</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>15.51985631613088</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -23585,10 +23585,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H15" t="n">
         <v>62.21475471039615</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>49.29443135207681</v>
       </c>
     </row>
     <row r="16">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>37.83286613262672</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,10 +23670,10 @@
         <v>164.8986288277083</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0721565279463</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>94.75543475034966</v>
+        <v>94.75543475034968</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.87806632431284</v>
+        <v>53.87806632431285</v>
       </c>
       <c r="S16" t="n">
         <v>172.690230165078</v>
@@ -23709,19 +23709,19 @@
         <v>234.2509660155943</v>
       </c>
       <c r="U16" t="n">
-        <v>31.67080773417339</v>
+        <v>279.933115524646</v>
       </c>
       <c r="V16" t="n">
-        <v>13.69116062700101</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>18.82324086334211</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>148.6632408849725</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1267113256218</v>
+        <v>145.6709843427497</v>
       </c>
       <c r="H17" t="n">
         <v>292.2911905456764</v>
       </c>
       <c r="I17" t="n">
-        <v>27.10858212596077</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>99.42138243528126</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.3556149981834</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.368743627847</v>
       </c>
       <c r="V17" t="n">
-        <v>171.8064618859375</v>
+        <v>88.88345213401203</v>
       </c>
       <c r="W17" t="n">
-        <v>122.4669708733109</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>196.9785416521841</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23816,19 +23816,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.1099950118801</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.21475471039615</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>91.86069278584544</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>164.3187269903166</v>
+        <v>105.7184280758171</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>80.3382791947155</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,10 +23907,10 @@
         <v>164.8986288277083</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0721565279463</v>
+        <v>142.0721565279464</v>
       </c>
       <c r="I19" t="n">
-        <v>94.75543475034966</v>
+        <v>94.75543475034968</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.87806632431284</v>
+        <v>53.87806632431285</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.690230165078</v>
       </c>
       <c r="T19" t="n">
         <v>234.2509660155943</v>
       </c>
       <c r="U19" t="n">
-        <v>279.933115524646</v>
+        <v>22.47738854177391</v>
       </c>
       <c r="V19" t="n">
-        <v>13.69116062700101</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>18.82324086334211</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>7.386811500979348</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>148.5676177969905</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>252.9951555028849</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>159.3643809429772</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>389.7153219972915</v>
+        <v>403.1267113256218</v>
       </c>
       <c r="H20" t="n">
-        <v>34.83546356280425</v>
+        <v>292.2911905456764</v>
       </c>
       <c r="I20" t="n">
-        <v>27.10858212596078</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>99.42138243528123</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.368743627847</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>88.88345213401197</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24050,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>27.97595450554471</v>
+        <v>127.1790869944824</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8986288277083</v>
       </c>
       <c r="H22" t="n">
         <v>142.0721565279464</v>
@@ -24180,19 +24180,19 @@
         <v>172.690230165078</v>
       </c>
       <c r="T22" t="n">
-        <v>172.3825905167889</v>
+        <v>234.2509660155943</v>
       </c>
       <c r="U22" t="n">
-        <v>22.47738854177385</v>
+        <v>31.67080773417382</v>
       </c>
       <c r="V22" t="n">
-        <v>13.69116062700112</v>
+        <v>13.69116062700124</v>
       </c>
       <c r="W22" t="n">
-        <v>18.82324086334222</v>
+        <v>18.82324086334233</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>84.96933643073271</v>
       </c>
       <c r="C23" t="n">
-        <v>102.547039336111</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -24220,10 +24220,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.065379944797513</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>69.63429277540061</v>
       </c>
       <c r="G25" t="n">
         <v>164.5343322142292</v>
@@ -24384,7 +24384,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>303.688970927412</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>230.9969683444676</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>156.0506683703973</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.937205813483</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>25.12420871070384</v>
       </c>
       <c r="E29" t="n">
-        <v>203.5675821379226</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,7 +24697,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>68.6443262999794</v>
       </c>
       <c r="I31" t="n">
         <v>83.80004204681616</v>
@@ -24888,10 +24888,10 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>181.0047722761068</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>330.6192974362948</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>166.7649119968958</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>48.34591565952586</v>
       </c>
       <c r="H34" t="n">
         <v>138.8332284553781</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.1322586427379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>3.635070055021401</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>260.3717739640337</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.19432948438933</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>263.4820391452397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>224.112003659975</v>
+        <v>186.4161912178982</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.38953538998517</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>270.1619871528132</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>136.6034815633336</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>141.2375589636339</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>241.4181151741332</v>
       </c>
       <c r="V43" t="n">
-        <v>88.25627406317443</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>392.6414648412052</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.3145745171349</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
@@ -25924,16 +25924,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>126.2221676957002</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>162.5925382632633</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>78.85041061467649</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330674.7127623162</v>
+        <v>330674.7127623158</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330674.712762316</v>
+        <v>330674.7127623159</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>330674.712762316</v>
+        <v>330674.7127623159</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>330674.7127623159</v>
+        <v>330674.7127623158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>524437.4717214903</v>
+        <v>524437.4717214904</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>524437.4717214903</v>
+        <v>524437.4717214904</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>524437.4717214903</v>
+        <v>524437.4717214904</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>524437.4717214901</v>
+        <v>524437.4717214903</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>524437.4717214908</v>
+        <v>524437.4717214904</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>127959.6199452083</v>
       </c>
       <c r="F2" t="n">
+        <v>127959.6199452082</v>
+      </c>
+      <c r="G2" t="n">
         <v>127959.6199452083</v>
       </c>
-      <c r="G2" t="n">
-        <v>127959.6199452084</v>
-      </c>
       <c r="H2" t="n">
-        <v>127959.6199452083</v>
+        <v>127959.6199452082</v>
       </c>
       <c r="I2" t="n">
         <v>201490.9183095237</v>
       </c>
       <c r="J2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="K2" t="n">
         <v>201490.9183095236</v>
       </c>
       <c r="L2" t="n">
+        <v>201490.9183095236</v>
+      </c>
+      <c r="M2" t="n">
+        <v>201490.9183095236</v>
+      </c>
+      <c r="N2" t="n">
+        <v>201490.9183095236</v>
+      </c>
+      <c r="O2" t="n">
         <v>201490.9183095237</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>201490.9183095237</v>
-      </c>
-      <c r="N2" t="n">
-        <v>201490.9183095237</v>
-      </c>
-      <c r="O2" t="n">
-        <v>201490.9183095236</v>
-      </c>
-      <c r="P2" t="n">
-        <v>201490.9183095238</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>8029.134114982229</v>
       </c>
       <c r="E3" t="n">
-        <v>275433.2977674908</v>
+        <v>275433.2977674906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64158.99698703974</v>
+        <v>64158.99698703965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>10852.97937168493</v>
       </c>
       <c r="D4" t="n">
-        <v>9140.082980491401</v>
+        <v>9140.082980491399</v>
       </c>
       <c r="E4" t="n">
-        <v>10998.91602303306</v>
+        <v>10998.91602303305</v>
       </c>
       <c r="F4" t="n">
-        <v>10998.91602303306</v>
+        <v>10998.91602303305</v>
       </c>
       <c r="G4" t="n">
-        <v>10998.91602303306</v>
+        <v>10998.91602303305</v>
       </c>
       <c r="H4" t="n">
         <v>10998.91602303305</v>
       </c>
       <c r="I4" t="n">
-        <v>21149.02438694227</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="J4" t="n">
         <v>21149.02438694226</v>
@@ -26447,19 +26447,19 @@
         <v>21149.02438694226</v>
       </c>
       <c r="L4" t="n">
-        <v>21149.02438694224</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="M4" t="n">
-        <v>21149.02438694225</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="N4" t="n">
-        <v>21149.02438694227</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="O4" t="n">
         <v>21149.02438694226</v>
       </c>
       <c r="P4" t="n">
-        <v>21149.02438694233</v>
+        <v>21149.02438694227</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>23864.92397526583</v>
+        <v>23864.92397526582</v>
       </c>
       <c r="F5" t="n">
-        <v>23864.92397526583</v>
+        <v>23864.92397526582</v>
       </c>
       <c r="G5" t="n">
-        <v>23864.92397526583</v>
+        <v>23864.92397526582</v>
       </c>
       <c r="H5" t="n">
-        <v>23864.92397526582</v>
+        <v>23864.92397526581</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194157</v>
@@ -26499,7 +26499,7 @@
         <v>43385.32273194157</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
         <v>43385.32273194157</v>
@@ -26511,7 +26511,7 @@
         <v>43385.32273194157</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194161</v>
+        <v>43385.32273194157</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106568.6497541542</v>
+        <v>-107944.9614491235</v>
       </c>
       <c r="C6" t="n">
-        <v>-3119.438667867551</v>
+        <v>-4495.103022585087</v>
       </c>
       <c r="D6" t="n">
-        <v>-2822.430860806533</v>
+        <v>-4197.264352267164</v>
       </c>
       <c r="E6" t="n">
-        <v>-182337.5178205814</v>
+        <v>-183326.5436511798</v>
       </c>
       <c r="F6" t="n">
-        <v>93095.77994690943</v>
+        <v>92106.75411631084</v>
       </c>
       <c r="G6" t="n">
-        <v>93095.77994690949</v>
+        <v>92106.75411631087</v>
       </c>
       <c r="H6" t="n">
-        <v>93095.77994690958</v>
+        <v>92106.75411631084</v>
       </c>
       <c r="I6" t="n">
-        <v>-81227.59057339728</v>
+        <v>-81848.95991217435</v>
       </c>
       <c r="J6" t="n">
-        <v>136956.5711906398</v>
+        <v>136335.2018518629</v>
       </c>
       <c r="K6" t="n">
-        <v>136956.5711906398</v>
+        <v>136335.2018518629</v>
       </c>
       <c r="L6" t="n">
-        <v>136956.5711906399</v>
+        <v>136335.2018518629</v>
       </c>
       <c r="M6" t="n">
-        <v>72797.57420360015</v>
+        <v>72176.20486482314</v>
       </c>
       <c r="N6" t="n">
-        <v>136956.5711906398</v>
+        <v>136335.2018518629</v>
       </c>
       <c r="O6" t="n">
-        <v>136956.5711906398</v>
+        <v>136335.2018518629</v>
       </c>
       <c r="P6" t="n">
-        <v>136956.5711906399</v>
+        <v>136335.2018518629</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>376.6796226929908</v>
+        <v>376.6796226929906</v>
       </c>
       <c r="F3" t="n">
-        <v>376.6796226929908</v>
+        <v>376.6796226929906</v>
       </c>
       <c r="G3" t="n">
-        <v>376.6796226929907</v>
+        <v>376.6796226929906</v>
       </c>
       <c r="H3" t="n">
-        <v>376.6796226929907</v>
+        <v>376.6796226929906</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040984</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>257.4557269828723</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="F4" t="n">
-        <v>257.4557269828722</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="G4" t="n">
-        <v>257.4557269828722</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="H4" t="n">
-        <v>257.4557269828721</v>
+        <v>257.455726982872</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
         <v>506.0804618258589</v>
@@ -26819,7 +26819,7 @@
         <v>506.0804618258589</v>
       </c>
       <c r="L4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="M4" t="n">
         <v>506.0804618258589</v>
@@ -26828,10 +26828,10 @@
         <v>506.0804618258589</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.080461825859</v>
       </c>
       <c r="P4" t="n">
-        <v>506.0804618258597</v>
+        <v>506.080461825859</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>9.375295260215537</v>
       </c>
       <c r="E3" t="n">
-        <v>247.1520292012835</v>
+        <v>247.1520292012833</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202.0190311111077</v>
+        <v>202.0190311111078</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>257.4557269828723</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.965470269661384e-14</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>248.6247348429869</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>257.4557269828724</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>257.4557269828723</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.514289940474334</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H11" t="n">
         <v>15.50822185288277</v>
       </c>
       <c r="I11" t="n">
-        <v>58.3796629301368</v>
+        <v>58.37966293013678</v>
       </c>
       <c r="J11" t="n">
-        <v>128.5234658353336</v>
+        <v>128.5234658353335</v>
       </c>
       <c r="K11" t="n">
-        <v>192.6233590156122</v>
+        <v>192.6233590156121</v>
       </c>
       <c r="L11" t="n">
-        <v>238.9663097814036</v>
+        <v>238.9663097814035</v>
       </c>
       <c r="M11" t="n">
-        <v>265.896063510314</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N11" t="n">
-        <v>270.1985398036867</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O11" t="n">
-        <v>255.1408192080951</v>
+        <v>255.140819208095</v>
       </c>
       <c r="P11" t="n">
         <v>217.7567863026349</v>
@@ -31785,16 +31785,16 @@
         <v>163.5262778093978</v>
       </c>
       <c r="R11" t="n">
-        <v>95.12201547332094</v>
+        <v>95.1220154733209</v>
       </c>
       <c r="S11" t="n">
-        <v>34.50688201855891</v>
+        <v>34.5068820185589</v>
       </c>
       <c r="T11" t="n">
-        <v>6.628804214426399</v>
+        <v>6.628804214426396</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1211431952379467</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8102165469245463</v>
+        <v>0.8102165469245459</v>
       </c>
       <c r="H12" t="n">
-        <v>7.824986124244961</v>
+        <v>7.824986124244957</v>
       </c>
       <c r="I12" t="n">
-        <v>27.89561356735829</v>
+        <v>27.89561356735827</v>
       </c>
       <c r="J12" t="n">
-        <v>76.54769577763884</v>
+        <v>76.54769577763879</v>
       </c>
       <c r="K12" t="n">
         <v>130.8322044215834</v>
       </c>
       <c r="L12" t="n">
-        <v>175.9200445416652</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M12" t="n">
-        <v>205.29039436768</v>
+        <v>205.2903943676799</v>
       </c>
       <c r="N12" t="n">
-        <v>210.7238202459591</v>
+        <v>210.723820245959</v>
       </c>
       <c r="O12" t="n">
-        <v>192.7711272851573</v>
+        <v>192.7711272851572</v>
       </c>
       <c r="P12" t="n">
         <v>154.7158246491267</v>
@@ -31864,16 +31864,16 @@
         <v>103.4234314986491</v>
       </c>
       <c r="R12" t="n">
-        <v>50.30449753624509</v>
+        <v>50.30449753624507</v>
       </c>
       <c r="S12" t="n">
-        <v>15.04941700098882</v>
+        <v>15.04941700098881</v>
       </c>
       <c r="T12" t="n">
-        <v>3.265741257121306</v>
+        <v>3.265741257121304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05330372019240438</v>
+        <v>0.05330372019240436</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6792583360037538</v>
+        <v>0.6792583360037535</v>
       </c>
       <c r="H13" t="n">
-        <v>6.039224114651561</v>
+        <v>6.039224114651558</v>
       </c>
       <c r="I13" t="n">
-        <v>20.42715068636744</v>
+        <v>20.42715068636743</v>
       </c>
       <c r="J13" t="n">
-        <v>48.02356435546539</v>
+        <v>48.02356435546537</v>
       </c>
       <c r="K13" t="n">
-        <v>78.91746849207247</v>
+        <v>78.91746849207243</v>
       </c>
       <c r="L13" t="n">
-        <v>100.9871893364127</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M13" t="n">
         <v>106.4768317064793</v>
       </c>
       <c r="N13" t="n">
-        <v>103.94505063592</v>
+        <v>103.9450506359199</v>
       </c>
       <c r="O13" t="n">
-        <v>96.01007825623971</v>
+        <v>96.01007825623967</v>
       </c>
       <c r="P13" t="n">
-        <v>82.15320820176306</v>
+        <v>82.15320820176302</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.87862302664161</v>
+        <v>56.87862302664158</v>
       </c>
       <c r="R13" t="n">
-        <v>30.5419248170415</v>
+        <v>30.54192481704149</v>
       </c>
       <c r="S13" t="n">
-        <v>11.83762027381087</v>
+        <v>11.83762027381086</v>
       </c>
       <c r="T13" t="n">
-        <v>2.902285617470584</v>
+        <v>2.902285617470582</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03705045469111388</v>
+        <v>0.03705045469111387</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.514289940474334</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H14" t="n">
-        <v>15.50822185288277</v>
+        <v>15.50822185288276</v>
       </c>
       <c r="I14" t="n">
-        <v>58.3796629301368</v>
+        <v>58.37966293013677</v>
       </c>
       <c r="J14" t="n">
-        <v>128.5234658353336</v>
+        <v>128.5234658353335</v>
       </c>
       <c r="K14" t="n">
-        <v>192.6233590156122</v>
+        <v>192.6233590156121</v>
       </c>
       <c r="L14" t="n">
-        <v>238.9663097814036</v>
+        <v>238.9663097814035</v>
       </c>
       <c r="M14" t="n">
-        <v>265.896063510314</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N14" t="n">
-        <v>270.1985398036867</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O14" t="n">
-        <v>255.1408192080951</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P14" t="n">
-        <v>217.7567863026349</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.5262778093978</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R14" t="n">
-        <v>95.12201547332094</v>
+        <v>95.12201547332089</v>
       </c>
       <c r="S14" t="n">
-        <v>34.50688201855891</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T14" t="n">
-        <v>6.628804214426399</v>
+        <v>6.628804214426395</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1211431952379467</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8102165469245463</v>
+        <v>0.8102165469245458</v>
       </c>
       <c r="H15" t="n">
-        <v>7.824986124244961</v>
+        <v>7.824986124244957</v>
       </c>
       <c r="I15" t="n">
-        <v>27.89561356735829</v>
+        <v>27.89561356735827</v>
       </c>
       <c r="J15" t="n">
-        <v>76.54769577763884</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K15" t="n">
         <v>130.8322044215834</v>
       </c>
       <c r="L15" t="n">
-        <v>175.9200445416652</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M15" t="n">
-        <v>205.29039436768</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N15" t="n">
-        <v>210.7238202459591</v>
+        <v>210.723820245959</v>
       </c>
       <c r="O15" t="n">
-        <v>192.7711272851573</v>
+        <v>192.7711272851571</v>
       </c>
       <c r="P15" t="n">
         <v>154.7158246491267</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.4234314986491</v>
+        <v>103.423431498649</v>
       </c>
       <c r="R15" t="n">
-        <v>50.30449753624509</v>
+        <v>50.30449753624507</v>
       </c>
       <c r="S15" t="n">
-        <v>15.04941700098882</v>
+        <v>15.04941700098881</v>
       </c>
       <c r="T15" t="n">
-        <v>3.265741257121306</v>
+        <v>3.265741257121304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05330372019240438</v>
+        <v>0.05330372019240435</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6792583360037538</v>
+        <v>0.6792583360037534</v>
       </c>
       <c r="H16" t="n">
-        <v>6.039224114651561</v>
+        <v>6.039224114651558</v>
       </c>
       <c r="I16" t="n">
-        <v>20.42715068636744</v>
+        <v>20.42715068636743</v>
       </c>
       <c r="J16" t="n">
-        <v>48.02356435546539</v>
+        <v>48.02356435546536</v>
       </c>
       <c r="K16" t="n">
-        <v>78.91746849207247</v>
+        <v>78.91746849207243</v>
       </c>
       <c r="L16" t="n">
-        <v>100.9871893364127</v>
+        <v>100.9871893364126</v>
       </c>
       <c r="M16" t="n">
         <v>106.4768317064793</v>
       </c>
       <c r="N16" t="n">
-        <v>103.94505063592</v>
+        <v>103.9450506359199</v>
       </c>
       <c r="O16" t="n">
-        <v>96.01007825623971</v>
+        <v>96.01007825623965</v>
       </c>
       <c r="P16" t="n">
-        <v>82.15320820176306</v>
+        <v>82.15320820176302</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.87862302664161</v>
+        <v>56.87862302664157</v>
       </c>
       <c r="R16" t="n">
-        <v>30.5419248170415</v>
+        <v>30.54192481704149</v>
       </c>
       <c r="S16" t="n">
-        <v>11.83762027381087</v>
+        <v>11.83762027381086</v>
       </c>
       <c r="T16" t="n">
-        <v>2.902285617470584</v>
+        <v>2.902285617470582</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03705045469111388</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.514289940474334</v>
+        <v>1.514289940474333</v>
       </c>
       <c r="H17" t="n">
-        <v>15.50822185288277</v>
+        <v>15.50822185288276</v>
       </c>
       <c r="I17" t="n">
-        <v>58.3796629301368</v>
+        <v>58.37966293013677</v>
       </c>
       <c r="J17" t="n">
-        <v>128.5234658353336</v>
+        <v>128.5234658353335</v>
       </c>
       <c r="K17" t="n">
-        <v>192.6233590156122</v>
+        <v>192.6233590156121</v>
       </c>
       <c r="L17" t="n">
-        <v>238.9663097814036</v>
+        <v>238.9663097814035</v>
       </c>
       <c r="M17" t="n">
-        <v>265.896063510314</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N17" t="n">
-        <v>270.1985398036867</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O17" t="n">
-        <v>255.1408192080951</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P17" t="n">
-        <v>217.7567863026349</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.5262778093978</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R17" t="n">
-        <v>95.12201547332093</v>
+        <v>95.12201547332089</v>
       </c>
       <c r="S17" t="n">
-        <v>34.50688201855891</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T17" t="n">
-        <v>6.628804214426398</v>
+        <v>6.628804214426395</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1211431952379467</v>
+        <v>0.1211431952379466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8102165469245461</v>
+        <v>0.8102165469245458</v>
       </c>
       <c r="H18" t="n">
-        <v>7.82498612424496</v>
+        <v>7.824986124244957</v>
       </c>
       <c r="I18" t="n">
-        <v>27.89561356735828</v>
+        <v>27.89561356735827</v>
       </c>
       <c r="J18" t="n">
-        <v>76.54769577763882</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K18" t="n">
         <v>130.8322044215834</v>
       </c>
       <c r="L18" t="n">
-        <v>175.9200445416652</v>
+        <v>175.9200445416651</v>
       </c>
       <c r="M18" t="n">
-        <v>205.2903943676799</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N18" t="n">
         <v>210.723820245959</v>
       </c>
       <c r="O18" t="n">
-        <v>192.7711272851572</v>
+        <v>192.7711272851571</v>
       </c>
       <c r="P18" t="n">
         <v>154.7158246491267</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.4234314986491</v>
+        <v>103.423431498649</v>
       </c>
       <c r="R18" t="n">
-        <v>50.30449753624509</v>
+        <v>50.30449753624507</v>
       </c>
       <c r="S18" t="n">
-        <v>15.04941700098882</v>
+        <v>15.04941700098881</v>
       </c>
       <c r="T18" t="n">
-        <v>3.265741257121305</v>
+        <v>3.265741257121304</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05330372019240437</v>
+        <v>0.05330372019240435</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6792583360037537</v>
+        <v>0.6792583360037534</v>
       </c>
       <c r="H19" t="n">
-        <v>6.03922411465156</v>
+        <v>6.039224114651558</v>
       </c>
       <c r="I19" t="n">
-        <v>20.42715068636744</v>
+        <v>20.42715068636743</v>
       </c>
       <c r="J19" t="n">
-        <v>48.02356435546538</v>
+        <v>48.02356435546536</v>
       </c>
       <c r="K19" t="n">
-        <v>78.91746849207246</v>
+        <v>78.91746849207243</v>
       </c>
       <c r="L19" t="n">
         <v>100.9871893364126</v>
@@ -32408,25 +32408,25 @@
         <v>103.9450506359199</v>
       </c>
       <c r="O19" t="n">
-        <v>96.01007825623969</v>
+        <v>96.01007825623965</v>
       </c>
       <c r="P19" t="n">
-        <v>82.15320820176305</v>
+        <v>82.15320820176302</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.8786230266416</v>
+        <v>56.87862302664157</v>
       </c>
       <c r="R19" t="n">
-        <v>30.5419248170415</v>
+        <v>30.54192481704149</v>
       </c>
       <c r="S19" t="n">
-        <v>11.83762027381087</v>
+        <v>11.83762027381086</v>
       </c>
       <c r="T19" t="n">
-        <v>2.902285617470583</v>
+        <v>2.902285617470582</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03705045469111388</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.514289940474333</v>
       </c>
       <c r="H20" t="n">
-        <v>15.50822185288277</v>
+        <v>15.50822185288276</v>
       </c>
       <c r="I20" t="n">
-        <v>58.37966293013679</v>
+        <v>58.37966293013677</v>
       </c>
       <c r="J20" t="n">
-        <v>128.5234658353336</v>
+        <v>128.5234658353335</v>
       </c>
       <c r="K20" t="n">
         <v>192.6233590156121</v>
@@ -32481,28 +32481,28 @@
         <v>238.9663097814035</v>
       </c>
       <c r="M20" t="n">
-        <v>265.896063510314</v>
+        <v>265.8960635103139</v>
       </c>
       <c r="N20" t="n">
-        <v>270.1985398036867</v>
+        <v>270.1985398036866</v>
       </c>
       <c r="O20" t="n">
-        <v>255.140819208095</v>
+        <v>255.1408192080949</v>
       </c>
       <c r="P20" t="n">
-        <v>217.7567863026349</v>
+        <v>217.7567863026348</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.5262778093978</v>
+        <v>163.5262778093977</v>
       </c>
       <c r="R20" t="n">
-        <v>95.12201547332091</v>
+        <v>95.12201547332089</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5068820185589</v>
+        <v>34.50688201855889</v>
       </c>
       <c r="T20" t="n">
-        <v>6.628804214426397</v>
+        <v>6.628804214426395</v>
       </c>
       <c r="U20" t="n">
         <v>0.1211431952379466</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.810216546924546</v>
+        <v>0.8102165469245458</v>
       </c>
       <c r="H21" t="n">
-        <v>7.824986124244958</v>
+        <v>7.824986124244957</v>
       </c>
       <c r="I21" t="n">
-        <v>27.89561356735828</v>
+        <v>27.89561356735827</v>
       </c>
       <c r="J21" t="n">
-        <v>76.54769577763881</v>
+        <v>76.54769577763878</v>
       </c>
       <c r="K21" t="n">
         <v>130.8322044215834</v>
@@ -32560,31 +32560,31 @@
         <v>175.9200445416651</v>
       </c>
       <c r="M21" t="n">
-        <v>205.2903943676799</v>
+        <v>205.2903943676798</v>
       </c>
       <c r="N21" t="n">
         <v>210.723820245959</v>
       </c>
       <c r="O21" t="n">
-        <v>192.7711272851572</v>
+        <v>192.7711272851571</v>
       </c>
       <c r="P21" t="n">
         <v>154.7158246491267</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.4234314986491</v>
+        <v>103.423431498649</v>
       </c>
       <c r="R21" t="n">
-        <v>50.30449753624508</v>
+        <v>50.30449753624507</v>
       </c>
       <c r="S21" t="n">
-        <v>15.04941700098882</v>
+        <v>15.04941700098881</v>
       </c>
       <c r="T21" t="n">
-        <v>3.265741257121305</v>
+        <v>3.265741257121304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05330372019240436</v>
+        <v>0.05330372019240435</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6792583360037536</v>
+        <v>0.6792583360037534</v>
       </c>
       <c r="H22" t="n">
-        <v>6.039224114651559</v>
+        <v>6.039224114651558</v>
       </c>
       <c r="I22" t="n">
         <v>20.42715068636743</v>
       </c>
       <c r="J22" t="n">
-        <v>48.02356435546537</v>
+        <v>48.02356435546536</v>
       </c>
       <c r="K22" t="n">
-        <v>78.91746849207244</v>
+        <v>78.91746849207243</v>
       </c>
       <c r="L22" t="n">
         <v>100.9871893364126</v>
@@ -32645,13 +32645,13 @@
         <v>103.9450506359199</v>
       </c>
       <c r="O22" t="n">
-        <v>96.01007825623968</v>
+        <v>96.01007825623965</v>
       </c>
       <c r="P22" t="n">
-        <v>82.15320820176304</v>
+        <v>82.15320820176302</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.87862302664159</v>
+        <v>56.87862302664157</v>
       </c>
       <c r="R22" t="n">
         <v>30.54192481704149</v>
@@ -32660,10 +32660,10 @@
         <v>11.83762027381086</v>
       </c>
       <c r="T22" t="n">
-        <v>2.902285617470583</v>
+        <v>2.902285617470582</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03705045469111388</v>
+        <v>0.03705045469111386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932989</v>
+        <v>89.68956723932719</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846456</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.19987450202566</v>
+        <v>55.19987450202558</v>
       </c>
       <c r="K11" t="n">
-        <v>103.4869693423951</v>
+        <v>103.486969342395</v>
       </c>
       <c r="L11" t="n">
-        <v>143.4809117185588</v>
+        <v>143.4809117185587</v>
       </c>
       <c r="M11" t="n">
-        <v>172.6058390532686</v>
+        <v>172.6058390532685</v>
       </c>
       <c r="N11" t="n">
-        <v>177.2862490470674</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O11" t="n">
-        <v>161.951043582312</v>
+        <v>161.9510435823119</v>
       </c>
       <c r="P11" t="n">
-        <v>124.1074230217508</v>
+        <v>124.1074230217507</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.49247341024576</v>
+        <v>73.49247341024571</v>
       </c>
       <c r="R11" t="n">
-        <v>7.809872658597428</v>
+        <v>7.809872658597385</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.354508101396046</v>
       </c>
       <c r="J12" t="n">
-        <v>237.1455255616752</v>
+        <v>229.791017460279</v>
       </c>
       <c r="K12" t="n">
-        <v>75.00642163696801</v>
+        <v>75.00642163696796</v>
       </c>
       <c r="L12" t="n">
         <v>119.8055207308161</v>
       </c>
       <c r="M12" t="n">
-        <v>147.7261106292625</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5304268522091</v>
+        <v>157.530426852209</v>
       </c>
       <c r="O12" t="n">
-        <v>135.0196482851573</v>
+        <v>135.0196482851572</v>
       </c>
       <c r="P12" t="n">
-        <v>100.456189646323</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.73081299381039</v>
+        <v>46.73081299381035</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.883238659367712</v>
+        <v>62.2483617344659</v>
       </c>
       <c r="K13" t="n">
         <v>235.0309308377674</v>
       </c>
       <c r="L13" t="n">
-        <v>46.35889544251115</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="M13" t="n">
-        <v>257.4557269828723</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="N13" t="n">
-        <v>52.23240512750051</v>
+        <v>52.23240512750047</v>
       </c>
       <c r="O13" t="n">
-        <v>39.93518018324338</v>
+        <v>39.93518018324334</v>
       </c>
       <c r="P13" t="n">
-        <v>257.4557269828723</v>
+        <v>26.37336656185824</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0685521200869</v>
+        <v>88.6889579256413</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.19987450202566</v>
+        <v>55.19987450202558</v>
       </c>
       <c r="K14" t="n">
-        <v>103.4869693423951</v>
+        <v>103.4869693423949</v>
       </c>
       <c r="L14" t="n">
-        <v>143.4809117185588</v>
+        <v>143.4809117185587</v>
       </c>
       <c r="M14" t="n">
-        <v>172.6058390532686</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N14" t="n">
-        <v>177.2862490470674</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O14" t="n">
-        <v>161.951043582312</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P14" t="n">
-        <v>124.1074230217508</v>
+        <v>124.1074230217507</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.49247341024576</v>
+        <v>73.49247341024568</v>
       </c>
       <c r="R14" t="n">
-        <v>7.809872658597428</v>
+        <v>7.809872658597371</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.35450810139606</v>
+        <v>7.354508101396043</v>
       </c>
       <c r="J15" t="n">
-        <v>25.17845697763882</v>
+        <v>229.791017460279</v>
       </c>
       <c r="K15" t="n">
-        <v>257.4557269828722</v>
+        <v>75.00642163696796</v>
       </c>
       <c r="L15" t="n">
         <v>119.8055207308161</v>
       </c>
       <c r="M15" t="n">
-        <v>147.7261106292625</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N15" t="n">
-        <v>157.5304268522091</v>
+        <v>157.530426852209</v>
       </c>
       <c r="O15" t="n">
-        <v>135.0196482851573</v>
+        <v>135.0196482851572</v>
       </c>
       <c r="P15" t="n">
-        <v>100.456189646323</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.73081299381039</v>
+        <v>46.73081299381032</v>
       </c>
       <c r="R15" t="n">
-        <v>22.16325513673594</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>26.66709893300565</v>
+        <v>235.0309308377674</v>
       </c>
       <c r="L16" t="n">
-        <v>257.4557269828722</v>
+        <v>46.35889544251109</v>
       </c>
       <c r="M16" t="n">
-        <v>257.4557269828722</v>
+        <v>50.21188920769922</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0130098927408</v>
+        <v>52.23240512750046</v>
       </c>
       <c r="O16" t="n">
-        <v>257.4557269828722</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="P16" t="n">
-        <v>26.37336656185828</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>120.6750817549985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.19987450202564</v>
+        <v>55.19987450202558</v>
       </c>
       <c r="K17" t="n">
-        <v>103.486969342395</v>
+        <v>103.4869693423949</v>
       </c>
       <c r="L17" t="n">
-        <v>143.4809117185588</v>
+        <v>143.4809117185587</v>
       </c>
       <c r="M17" t="n">
-        <v>172.6058390532685</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N17" t="n">
-        <v>177.2862490470674</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O17" t="n">
-        <v>161.9510435823119</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P17" t="n">
         <v>124.1074230217507</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.49247341024574</v>
+        <v>73.49247341024568</v>
       </c>
       <c r="R17" t="n">
-        <v>7.809872658597413</v>
+        <v>7.809872658597371</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.354508101396053</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.17845697763881</v>
+        <v>237.1455255616751</v>
       </c>
       <c r="K18" t="n">
-        <v>75.00642163696801</v>
+        <v>75.00642163696796</v>
       </c>
       <c r="L18" t="n">
-        <v>257.4557269828722</v>
+        <v>119.8055207308161</v>
       </c>
       <c r="M18" t="n">
-        <v>214.6884648598465</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N18" t="n">
         <v>157.530426852209</v>
@@ -35980,10 +35980,10 @@
         <v>135.0196482851572</v>
       </c>
       <c r="P18" t="n">
-        <v>100.456189646323</v>
+        <v>100.4561896463229</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.73081299381037</v>
+        <v>46.73081299381032</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>62.24836173446589</v>
       </c>
       <c r="K19" t="n">
-        <v>26.66709893300563</v>
+        <v>235.0309308377674</v>
       </c>
       <c r="L19" t="n">
-        <v>257.4557269828722</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="M19" t="n">
-        <v>257.4557269828722</v>
+        <v>140.9213630531418</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0130098927408</v>
+        <v>257.4557269828721</v>
       </c>
       <c r="O19" t="n">
-        <v>257.4557269828722</v>
+        <v>39.93518018324333</v>
       </c>
       <c r="P19" t="n">
-        <v>26.37336656185827</v>
+        <v>26.37336656185824</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.19987450202561</v>
+        <v>55.19987450202558</v>
       </c>
       <c r="K20" t="n">
-        <v>103.486969342395</v>
+        <v>103.4869693423949</v>
       </c>
       <c r="L20" t="n">
         <v>143.4809117185587</v>
       </c>
       <c r="M20" t="n">
-        <v>172.6058390532685</v>
+        <v>172.6058390532684</v>
       </c>
       <c r="N20" t="n">
-        <v>177.2862490470674</v>
+        <v>177.2862490470673</v>
       </c>
       <c r="O20" t="n">
-        <v>161.9510435823119</v>
+        <v>161.9510435823118</v>
       </c>
       <c r="P20" t="n">
         <v>124.1074230217507</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.49247341024571</v>
+        <v>73.49247341024568</v>
       </c>
       <c r="R20" t="n">
-        <v>7.809872658597399</v>
+        <v>7.809872658597371</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>237.1455255616748</v>
+        <v>25.17845697763877</v>
       </c>
       <c r="K21" t="n">
-        <v>75.00642163696799</v>
+        <v>257.455726982872</v>
       </c>
       <c r="L21" t="n">
         <v>119.8055207308161</v>
       </c>
       <c r="M21" t="n">
-        <v>147.7261106292625</v>
+        <v>147.7261106292624</v>
       </c>
       <c r="N21" t="n">
         <v>157.530426852209</v>
@@ -36220,7 +36220,7 @@
         <v>100.4561896463229</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.73081299381036</v>
+        <v>76.24857623194235</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>62.24836173446589</v>
       </c>
       <c r="K22" t="n">
-        <v>26.66709893300562</v>
+        <v>26.6670989330056</v>
       </c>
       <c r="L22" t="n">
-        <v>194.0130098927407</v>
+        <v>257.455726982872</v>
       </c>
       <c r="M22" t="n">
-        <v>257.4557269828721</v>
+        <v>257.455726982872</v>
       </c>
       <c r="N22" t="n">
-        <v>257.4557269828721</v>
+        <v>257.455726982872</v>
       </c>
       <c r="O22" t="n">
-        <v>257.4557269828721</v>
+        <v>39.93518018324333</v>
       </c>
       <c r="P22" t="n">
-        <v>26.37336656185825</v>
+        <v>26.37336656185824</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>91.82946797503149</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J24" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>157.506144139186</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794518</v>
@@ -36451,16 +36451,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>477.5833844915588</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911857</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>198.5095821931758</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>234.1926735924575</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36682,7 +36682,7 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M27" t="n">
-        <v>506.0804618258589</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N27" t="n">
         <v>270.5448280395447</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
         <v>107.1416677554515</v>
@@ -36761,13 +36761,13 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N28" t="n">
-        <v>186.1095904660701</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>91.426850604809</v>
+        <v>182.619393533747</v>
       </c>
       <c r="P28" t="n">
         <v>333.9661976574595</v>
@@ -36910,7 +36910,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J30" t="n">
-        <v>66.23215461126495</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
@@ -36922,7 +36922,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
         <v>238.4057462161408</v>
@@ -36931,7 +36931,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>371.7355418208417</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R30" t="n">
         <v>18.28336828375327</v>
@@ -36998,13 +36998,13 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N31" t="n">
-        <v>186.1095904660701</v>
+        <v>216.3031158151053</v>
       </c>
       <c r="O31" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
         <v>333.9661976574595</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J33" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K33" t="n">
         <v>145.1737298295874</v>
@@ -37159,16 +37159,16 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
-        <v>506.0804618258588</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
-        <v>242.0477507052437</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P33" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R33" t="n">
         <v>18.28336828375327</v>
@@ -37229,25 +37229,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911857</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>182.6193935337465</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J36" t="n">
-        <v>210.3982203089267</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K36" t="n">
-        <v>506.0804618258589</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794518</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R36" t="n">
         <v>18.28336828375327</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>147.6467133363129</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
@@ -37478,10 +37478,10 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q37" t="n">
         <v>26.0239710644933</v>
@@ -37630,13 +37630,13 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M39" t="n">
-        <v>408.145821388536</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>238.4057462161408</v>
+        <v>388.7250850198602</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153362</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
         <v>277.3555737492421</v>
@@ -37709,10 +37709,10 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>107.3170392642374</v>
+        <v>215.6404327273624</v>
       </c>
       <c r="N40" t="n">
-        <v>281.9610588770613</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O40" t="n">
         <v>409.6841833510115</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
         <v>66.23215461126495</v>
       </c>
       <c r="K42" t="n">
-        <v>269.4618920054156</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L42" t="n">
-        <v>506.0804618258589</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M42" t="n">
         <v>257.8264825848162</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132224</v>
+        <v>498.6474177014203</v>
       </c>
       <c r="R42" t="n">
         <v>107.1416677554515</v>
@@ -37940,13 +37940,13 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>100.5198665046596</v>
+        <v>178.068122659404</v>
       </c>
       <c r="M43" t="n">
-        <v>197.4028668560869</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
@@ -37958,7 +37958,7 @@
         <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183232324</v>
+        <v>4.201322183229625</v>
       </c>
       <c r="J44" t="n">
         <v>124.1289709513377</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>315.2585270673447</v>
       </c>
       <c r="L45" t="n">
-        <v>453.3317640548725</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M45" t="n">
         <v>257.8264825848162</v>
@@ -38119,7 +38119,7 @@
         <v>102.1983779132224</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>115.9487269939363</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
@@ -38186,7 +38186,7 @@
         <v>107.3170392642374</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151056</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510115</v>
